--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/アクティビティ図　第1.0版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/アクティビティ図　第1.0版.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1AC5439-00EA-7D46-B651-7D4331C90467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F31A8BD-237E-4E40-9513-AF3CBBBADA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="3100" windowWidth="17480" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
     <sheet name="記述様式" sheetId="3" r:id="rId2"/>
-    <sheet name="業務フロー 概要図" sheetId="9" r:id="rId3"/>
-    <sheet name="業務フロー(1)" sheetId="4" r:id="rId4"/>
+    <sheet name="業務フロー(1)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">記述様式!$A$1:$F$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'業務フロー 概要図'!$A$1:$AL$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'業務フロー(1)'!$A$1:$AG$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'業務フロー(1)'!$A$1:$AG$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">記述様式!$2:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'業務フロー 概要図'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'業務フロー(1)'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'業務フロー(1)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>業務フロー</t>
     <rPh sb="0" eb="2">
@@ -549,10 +546,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>○○　○○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -659,50 +652,6 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>コウガクカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スケジュール管理</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スケジュール共有フロー（概要）</t>
-    <rPh sb="6" eb="8">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>麻生塾　スケジュールデータセンター</t>
-    <rPh sb="0" eb="2">
-      <t>アソウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジュク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>情工</t>
-    <rPh sb="0" eb="1">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>コウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1162,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,8 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,6 +1254,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1352,6 +1308,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,27 +1364,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1422,33 +1375,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3021,1761 +2947,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>275772</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>232228</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>117969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE06D141-CC75-D745-ADC5-F0EAF0C120D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1719943" y="3091543"/>
-          <a:ext cx="9361714" cy="4278086"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39890" name="irc_mi" descr="http://bmb.oidc.jp/images/199/images/%E5%80%89%E5%BA%AB%EF%BC%BF002.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0967A146-ABE8-D84B-B386-CADD0D874105}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="279400" y="1143000"/>
-          <a:ext cx="1828800" cy="1282700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>306369</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="287" name="テキスト ボックス 286">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D534B4-B0B3-2E42-B4DB-395C52F03B61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3539096" y="6211463"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>293482</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>87974</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="288" name="テキスト ボックス 287">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852E13ED-EFD3-C74C-89EB-AD05F41D9138}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3526209" y="6784338"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39893" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1291B6F-0502-1340-A1FF-5EDF088825F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="88900" y="3746500"/>
-          <a:ext cx="1143000" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39894" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A69F32D-5A36-4B48-A4E7-A86FB13E4E9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="546100" y="5334000"/>
-          <a:ext cx="1079500" cy="1257300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>93848</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323244</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>5245</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC718E6-C101-FA44-BB04-FC0F83F5290D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1844634" y="4457205"/>
-          <a:ext cx="1682337" cy="501040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF71FF"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="accent4">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>時間割表示（一日）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180932</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>94010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>14843</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>32510</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA07334-11DF-BA49-BE53-A23CFE6FF1D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3695203" y="3577439"/>
-          <a:ext cx="2491841" cy="578924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF71FF"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="accent4">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>科目詳細設定画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>149267</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>60366</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323263</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A3145B-4F98-6944-AD0A-FF57D8B38265}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3957453" y="5176652"/>
-          <a:ext cx="1039090" cy="404751"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF71FF"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="accent4">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123537</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>18802</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>192809</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>20477</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFACE691-02C3-464B-92CC-EAC06227492D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5695208" y="5135088"/>
-          <a:ext cx="2420587" cy="504009"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF71FF"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="accent4">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>グループ登録画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123535</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>192809</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>116081</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72256BC-4A55-3B4D-926A-A1486E92538C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5695206" y="6197929"/>
-          <a:ext cx="2420589" cy="504009"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF71FF"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="accent4">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>グループ設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>93849</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>88074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323245</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>102227</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763AAD7C-D21D-6449-80DA-37598220EB2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1844635" y="5694217"/>
-          <a:ext cx="1682337" cy="504010"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF71FF"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="accent4">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>時間割表示（週間）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1400"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40574</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>5245</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>88074</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BFFAC9-5584-AF41-9868-40B278DA9DE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="70" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2659083" y="5048300"/>
-          <a:ext cx="1" cy="747847"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>93997</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80945</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>60526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="カギ線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2222674C-4E4E-A145-8819-608494AD3C1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="0"/>
-          <a:endCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3722990" y="4560198"/>
-          <a:ext cx="477833" cy="941121"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80945</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12022</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="カギ線コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7064D5-7E17-3C4C-8ADA-A1094F8D8564}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="2"/>
-          <a:endCxn id="70" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3775786" y="5395924"/>
-          <a:ext cx="372241" cy="941120"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40574</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>56901</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180847</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157348</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="カギ線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A693ED-07B0-8942-AC5C-E2E9CFC0D8F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="65" idx="1"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2685803" y="3866901"/>
-          <a:ext cx="1009400" cy="590304"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>99457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123460</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>109006</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="カギ線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D9B476-B720-F04E-BAC2-A0EDA0F7CD75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="1"/>
-          <a:endCxn id="67" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4946073" y="5475021"/>
-          <a:ext cx="692728" cy="9549"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>99457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123458</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25879</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="カギ線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944BC71F-2992-4244-A06C-163D13CC4626}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="1"/>
-          <a:endCxn id="67" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4946073" y="5475021"/>
-          <a:ext cx="692726" cy="1090203"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 66000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>233219</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>260929</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41670</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 磁気ディスク 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA55317-B058-1247-818C-5AA61EA42D5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7772401" y="734291"/>
-          <a:ext cx="2937164" cy="1856509"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="2300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="2300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>グループデータベース</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>42553</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>124532</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>129935</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D051A457-FFA8-7145-A435-779846B03032}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8479971" y="6322619"/>
-          <a:ext cx="2396837" cy="512916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF71FF"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="accent4">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>個別グループ設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>192809</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25878</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>42528</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>39732</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="カギ線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001CC335-3FD7-DE4C-AFD1-60A056378480}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="3"/>
-          <a:endCxn id="24" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8035636" y="6565223"/>
-          <a:ext cx="444335" cy="13854"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>254001</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>259825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110561</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="カギ線コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89E84EE-C28F-1E49-96D9-3CA3D60C8D6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="16" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7593777" y="1352302"/>
-          <a:ext cx="546265" cy="2932217"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>83951</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1978</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>234178</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>94015</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC18B1A5-5C67-DD49-9324-428936690793}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7053942" y="4213760"/>
-          <a:ext cx="2465122" cy="590800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF71FF"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="accent4">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チェックリスト画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>118424</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>83955</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>94639</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="カギ線コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC675F5-0095-854F-8575-D9488024E0C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="1"/>
-          <a:endCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3491346" y="4509160"/>
-          <a:ext cx="3562597" cy="282682"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7839,72 +6010,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="14">
-      <c r="A1" s="48"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:176" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="55"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="53"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
@@ -8065,7 +6236,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="56"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
@@ -8075,16 +6246,16 @@
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
-      <c r="Y3" s="81" t="s">
-        <v>49</v>
+      <c r="Y3" s="82" t="s">
+        <v>48</v>
       </c>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="83">
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="84">
         <v>43599</v>
       </c>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="82"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="83"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="15"/>
     </row>
@@ -8149,7 +6320,7 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
@@ -8185,7 +6356,7 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
@@ -8253,42 +6424,42 @@
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
-      <c r="Y8" s="102" t="s">
+      <c r="Y8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="102" t="s">
-        <v>48</v>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="103" t="s">
+        <v>44</v>
       </c>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD8" s="103"/>
+      <c r="AD8" s="104"/>
       <c r="AF8" s="15"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
-      <c r="B9" s="57" t="s">
-        <v>38</v>
+      <c r="B9" s="55" t="s">
+        <v>37</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="85" t="s">
-        <v>61</v>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="86" t="s">
+        <v>55</v>
       </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="88"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -8296,40 +6467,40 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
-      <c r="Y9" s="131" t="s">
-        <v>83</v>
+      <c r="Y9" s="105" t="s">
+        <v>77</v>
       </c>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="131" t="s">
-        <v>83</v>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="105" t="s">
+        <v>77</v>
       </c>
-      <c r="AD9" s="132"/>
+      <c r="AD9" s="106"/>
       <c r="AF9" s="15"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="88" t="s">
-        <v>39</v>
+      <c r="B10" s="89" t="s">
+        <v>38</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="94" t="s">
-        <v>62</v>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="95" t="s">
+        <v>56</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -8337,32 +6508,32 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="134"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="108"/>
       <c r="AF10" s="15"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="99"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="100"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
@@ -8370,12 +6541,12 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
       <c r="X11" s="16"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="136"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="110"/>
       <c r="AF11" s="15"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -8594,18 +6765,18 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="16"/>
@@ -8630,16 +6801,16 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="16"/>
@@ -8664,16 +6835,16 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
@@ -8790,8 +6961,8 @@
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="60" t="s">
-        <v>40</v>
+      <c r="B24" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -8860,631 +7031,631 @@
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="13"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="61" t="s">
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="61" t="s">
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="65" t="s">
+      <c r="AD26" s="64" t="s">
         <v>44</v>
-      </c>
-      <c r="AD26" s="66" t="s">
-        <v>45</v>
       </c>
       <c r="AE26" s="14"/>
       <c r="AF26" s="15"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="61" t="s">
-        <v>50</v>
+      <c r="B27" s="59" t="s">
+        <v>49</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="110">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="117">
         <v>42864</v>
       </c>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="128" t="s">
-        <v>82</v>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="76" t="s">
+        <v>76</v>
       </c>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129"/>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="129"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="129"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="76" t="s">
-        <v>59</v>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="74" t="s">
+        <v>53</v>
       </c>
       <c r="AE27" s="14"/>
       <c r="AF27" s="15"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="76"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="74"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="15"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="76"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="74"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="15"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="63"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="76"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="74"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="15"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="13"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="63"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="61"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="15"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="13"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="63"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="63"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="61"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="15"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="63"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="61"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="15"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="63"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="61"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="15"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="63"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="61"/>
       <c r="AE35" s="14"/>
       <c r="AF35" s="15"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="63"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="63"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="61"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="15"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="13"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="63"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="63"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="61"/>
       <c r="AE37" s="14"/>
       <c r="AF37" s="15"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="63"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="61"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="15"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="63"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="61"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="15"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="63"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="63"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="61"/>
       <c r="AE40" s="14"/>
       <c r="AF40" s="15"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="63"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="61"/>
       <c r="AE41" s="14"/>
       <c r="AF41" s="15"/>
     </row>
     <row r="42" spans="1:32" ht="12.75" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="63"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="63"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="63"/>
+      <c r="AD42" s="61"/>
       <c r="AE42" s="14"/>
       <c r="AF42" s="15"/>
     </row>
     <row r="43" spans="1:32" ht="12.75" customHeight="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="63"/>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="63"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="61"/>
       <c r="AE43" s="14"/>
       <c r="AF43" s="15"/>
     </row>
@@ -9524,19 +7695,19 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:Q11"/>
+    <mergeCell ref="L18:U20"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="J27:AB27"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:Q11"/>
-    <mergeCell ref="L18:U20"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="Y9:Z11"/>
-    <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F29:I29"/>
@@ -9683,7 +7854,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="28"/>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="34"/>
@@ -9710,1785 +7881,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AO45"/>
-  <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="4.1640625" style="21" customWidth="1"/>
-    <col min="12" max="35" width="4.1640625" style="1" customWidth="1"/>
-    <col min="36" max="38" width="4.1640625" style="22" customWidth="1"/>
-    <col min="39" max="42" width="4" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1">
-      <c r="A1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-    </row>
-    <row r="2" spans="1:41" ht="14.25" customHeight="1">
-      <c r="A2" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="116"/>
-    </row>
-    <row r="3" spans="1:41" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="114" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="116"/>
-    </row>
-    <row r="4" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="12"/>
-    </row>
-    <row r="5" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="15"/>
-    </row>
-    <row r="6" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="15"/>
-    </row>
-    <row r="7" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="15"/>
-    </row>
-    <row r="8" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="15"/>
-    </row>
-    <row r="9" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="15"/>
-    </row>
-    <row r="10" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="15"/>
-      <c r="AO10"/>
-    </row>
-    <row r="11" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="15"/>
-    </row>
-    <row r="12" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="15"/>
-    </row>
-    <row r="13" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="15"/>
-    </row>
-    <row r="14" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="15"/>
-    </row>
-    <row r="15" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="15"/>
-    </row>
-    <row r="16" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="16"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="15"/>
-    </row>
-    <row r="17" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="12"/>
-    </row>
-    <row r="18" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="15"/>
-    </row>
-    <row r="19" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="15"/>
-    </row>
-    <row r="20" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="15"/>
-    </row>
-    <row r="21" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="15"/>
-    </row>
-    <row r="22" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="15"/>
-    </row>
-    <row r="23" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="15"/>
-    </row>
-    <row r="24" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="15"/>
-    </row>
-    <row r="25" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="15"/>
-    </row>
-    <row r="26" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="15"/>
-    </row>
-    <row r="27" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="15"/>
-    </row>
-    <row r="28" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="15"/>
-    </row>
-    <row r="29" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="15"/>
-    </row>
-    <row r="30" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="15"/>
-    </row>
-    <row r="31" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="15"/>
-    </row>
-    <row r="32" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="15"/>
-    </row>
-    <row r="33" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="15"/>
-    </row>
-    <row r="34" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="15"/>
-    </row>
-    <row r="35" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="15"/>
-    </row>
-    <row r="36" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="15"/>
-    </row>
-    <row r="37" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="15"/>
-    </row>
-    <row r="38" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="15"/>
-    </row>
-    <row r="39" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="15"/>
-    </row>
-    <row r="40" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="15"/>
-    </row>
-    <row r="41" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="15"/>
-    </row>
-    <row r="42" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="15"/>
-    </row>
-    <row r="43" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="15"/>
-    </row>
-    <row r="44" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="15"/>
-    </row>
-    <row r="45" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="19"/>
-      <c r="AJ45" s="19"/>
-      <c r="AK45" s="19"/>
-      <c r="AL45" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="L2:AD3"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FU53"/>
   <sheetViews>
@@ -11507,41 +7899,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="15" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
     </row>
     <row r="2" spans="1:177" ht="14.25" customHeight="1">
       <c r="A2" s="124" t="s">
@@ -11581,16 +7973,16 @@
       <c r="AA2" s="125"/>
       <c r="AB2" s="125"/>
       <c r="AC2" s="126"/>
-      <c r="AD2" s="114" t="s">
+      <c r="AD2" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="116"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="123"/>
     </row>
     <row r="3" spans="1:177" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -11598,7 +7990,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -11606,7 +7998,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="6"/>
       <c r="M3" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -11620,59 +8012,59 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="114" t="s">
-        <v>63</v>
+      <c r="Z3" s="121" t="s">
+        <v>57</v>
       </c>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="114" t="s">
-        <v>60</v>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="121" t="s">
+        <v>54</v>
       </c>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="116"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="123"/>
     </row>
     <row r="4" spans="1:177" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="102" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="113" t="s">
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="113"/>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="113"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
       <c r="AD4" s="127"/>
       <c r="AE4" s="127"/>
       <c r="AF4" s="127"/>
-      <c r="AG4" s="109"/>
+      <c r="AG4" s="116"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
@@ -11876,7 +8268,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
       <c r="V6" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
@@ -11913,10 +8305,10 @@
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
       <c r="V7" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
@@ -11950,10 +8342,10 @@
       <c r="T8" s="14"/>
       <c r="U8" s="15"/>
       <c r="V8" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
@@ -11983,10 +8375,10 @@
       <c r="R9" s="14"/>
       <c r="U9" s="17"/>
       <c r="V9" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
@@ -12019,10 +8411,10 @@
       <c r="S10" s="14"/>
       <c r="U10" s="17"/>
       <c r="V10" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
@@ -12054,10 +8446,10 @@
       <c r="S11" s="14"/>
       <c r="U11" s="17"/>
       <c r="V11" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
@@ -12088,10 +8480,10 @@
       <c r="R12" s="14"/>
       <c r="U12" s="17"/>
       <c r="V12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
@@ -12124,10 +8516,10 @@
       <c r="T13" s="14"/>
       <c r="U13" s="15"/>
       <c r="V13" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
@@ -12160,10 +8552,10 @@
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
       <c r="V14" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
-      <c r="W14" s="68"/>
-      <c r="X14" s="67"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="65"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
@@ -12196,10 +8588,10 @@
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
       <c r="V15" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
-      <c r="W15" s="68"/>
-      <c r="X15" s="67"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="65"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
@@ -12233,10 +8625,10 @@
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
       <c r="V16" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
-      <c r="W16" s="69"/>
-      <c r="X16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="65"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
@@ -12270,10 +8662,10 @@
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
       <c r="V17" s="14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
-      <c r="W17" s="68"/>
-      <c r="X17" s="67"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="65"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
@@ -12307,10 +8699,10 @@
       <c r="T18" s="14"/>
       <c r="U18" s="15"/>
       <c r="V18" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
-      <c r="W18" s="68"/>
-      <c r="X18" s="67"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="65"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
@@ -12334,14 +8726,14 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
@@ -12381,7 +8773,7 @@
       <c r="R20" s="14"/>
       <c r="U20" s="17"/>
       <c r="V20" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
@@ -12413,7 +8805,7 @@
       <c r="R21" s="14"/>
       <c r="U21" s="17"/>
       <c r="V21" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
@@ -12445,9 +8837,9 @@
       <c r="R22" s="14"/>
       <c r="U22" s="17"/>
       <c r="V22" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
-      <c r="W22" s="68"/>
+      <c r="W22" s="66"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
@@ -12478,7 +8870,7 @@
       <c r="R23" s="14"/>
       <c r="U23" s="17"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="67"/>
+      <c r="W23" s="65"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
@@ -12511,7 +8903,7 @@
       <c r="R24" s="14"/>
       <c r="U24" s="17"/>
       <c r="V24" s="14"/>
-      <c r="W24" s="67"/>
+      <c r="W24" s="65"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
@@ -12544,7 +8936,7 @@
       <c r="R25" s="14"/>
       <c r="U25" s="17"/>
       <c r="V25" s="14"/>
-      <c r="W25" s="68"/>
+      <c r="W25" s="66"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
@@ -12579,7 +8971,7 @@
       <c r="T26" s="14"/>
       <c r="U26" s="15"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="68"/>
+      <c r="W26" s="66"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
@@ -12614,7 +9006,7 @@
       <c r="T27" s="14"/>
       <c r="U27" s="15"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="67"/>
+      <c r="W27" s="65"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
@@ -12649,7 +9041,7 @@
       <c r="T28" s="14"/>
       <c r="U28" s="15"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="67"/>
+      <c r="W28" s="65"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
@@ -12684,7 +9076,7 @@
       <c r="T29" s="14"/>
       <c r="U29" s="15"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="67"/>
+      <c r="W29" s="65"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
@@ -12719,7 +9111,7 @@
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="67"/>
+      <c r="W30" s="65"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -12754,7 +9146,7 @@
       <c r="T31" s="14"/>
       <c r="U31" s="15"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="67"/>
+      <c r="W31" s="65"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
@@ -12789,7 +9181,7 @@
       <c r="T32" s="14"/>
       <c r="U32" s="15"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="67"/>
+      <c r="W32" s="65"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
@@ -13181,77 +9573,77 @@
     <row r="45" spans="1:33" ht="12.75" customHeight="1">
       <c r="H45" s="40"/>
       <c r="U45" s="17"/>
-      <c r="AG45" s="47"/>
+      <c r="AG45" s="45"/>
     </row>
     <row r="46" spans="1:33" ht="12.75" customHeight="1">
       <c r="H46" s="40"/>
       <c r="U46" s="17"/>
-      <c r="AG46" s="47"/>
+      <c r="AG46" s="45"/>
     </row>
     <row r="47" spans="1:33" ht="12.75" customHeight="1">
       <c r="H47" s="40"/>
       <c r="U47" s="17"/>
-      <c r="AG47" s="47"/>
+      <c r="AG47" s="45"/>
     </row>
     <row r="48" spans="1:33" ht="12.75" customHeight="1">
       <c r="H48" s="40"/>
       <c r="U48" s="17"/>
-      <c r="AG48" s="47"/>
+      <c r="AG48" s="45"/>
     </row>
     <row r="49" spans="1:33" ht="12.75" customHeight="1">
       <c r="H49" s="40"/>
       <c r="U49" s="17"/>
-      <c r="AG49" s="47"/>
+      <c r="AG49" s="45"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1">
       <c r="H50" s="40"/>
       <c r="U50" s="17"/>
-      <c r="AG50" s="47"/>
+      <c r="AG50" s="45"/>
     </row>
     <row r="51" spans="1:33" ht="12.75" customHeight="1">
       <c r="H51" s="40"/>
       <c r="U51" s="17"/>
-      <c r="AG51" s="47"/>
+      <c r="AG51" s="45"/>
     </row>
     <row r="52" spans="1:33" ht="12.75" customHeight="1">
       <c r="H52" s="40"/>
       <c r="U52" s="17"/>
-      <c r="AG52" s="47"/>
+      <c r="AG52" s="45"/>
     </row>
     <row r="53" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="44"/>
-      <c r="AC53" s="44"/>
-      <c r="AD53" s="44"/>
-      <c r="AE53" s="74"/>
-      <c r="AF53" s="74"/>
-      <c r="AG53" s="77"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="72"/>
+      <c r="AF53" s="72"/>
+      <c r="AG53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="10">
